--- a/classification/droptc/sentence/bert-base-uncased/unfreeze/37622020/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/unfreeze/37622020/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9984082579612732</v>
+        <v>0.9998788833618164</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9984397292137146</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8782119750976562</v>
+        <v>0.9999030828475952</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9983277916908264</v>
+        <v>0.9994372725486755</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9982713460922241</v>
+        <v>0.9999513626098633</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9983891248703003</v>
+        <v>0.9999366998672485</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9859060049057007</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9983366727828979</v>
+        <v>0.9992223978042603</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9984209537506104</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998431384563446</v>
+        <v>0.9917728304862976</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8655521869659424</v>
+        <v>0.9999555349349976</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9985321760177612</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9959371089935303</v>
+        <v>0.9998502731323242</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.977558434009552</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6442905068397522</v>
+        <v>0.9999408721923828</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9919064044952393</v>
+        <v>0.9999561309814453</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9922885298728943</v>
+        <v>0.9958332777023315</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9999575614929199</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.987027645111084</v>
+        <v>0.9999423027038574</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9920146465301514</v>
+        <v>0.9999543428421021</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9920435547828674</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9920435547828674</v>
+        <v>0.9999517202377319</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9981672763824463</v>
+        <v>0.9999526739120483</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9660986065864563</v>
+        <v>0.9992440938949585</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5001456737518311</v>
+        <v>0.9964344501495361</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9912759065628052</v>
+        <v>0.9998791217803955</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9982039928436279</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9959461092948914</v>
+        <v>0.9999555349349976</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9954708814620972</v>
+        <v>0.999948263168335</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.998134970664978</v>
+        <v>0.9999481439590454</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9983281493186951</v>
+        <v>0.9997475743293762</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9983882904052734</v>
+        <v>0.9997103810310364</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9984476566314697</v>
+        <v>0.9988611936569214</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9982818365097046</v>
+        <v>0.9995794892311096</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9694743156433105</v>
+        <v>0.9999477863311768</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.998383641242981</v>
+        <v>0.999629020690918</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9982342720031738</v>
+        <v>0.9999476671218872</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.998344898223877</v>
+        <v>0.6498478651046753</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9847642779350281</v>
+        <v>0.9777917265892029</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9923734068870544</v>
+        <v>0.9998167157173157</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6604177951812744</v>
+        <v>0.999103844165802</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.93194580078125</v>
+        <v>0.9996986389160156</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9982207417488098</v>
+        <v>0.9995419979095459</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9983693957328796</v>
+        <v>0.9996951818466187</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8766012787818909</v>
+        <v>0.9988540410995483</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9639906287193298</v>
+        <v>0.9924544095993042</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9920885562896729</v>
+        <v>0.9996917247772217</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9984499216079712</v>
+        <v>0.9999527931213379</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8107957243919373</v>
+        <v>0.9997022747993469</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9924675822257996</v>
+        <v>0.9984567165374756</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9983654618263245</v>
+        <v>0.9999374151229858</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9983269572257996</v>
+        <v>0.9997022747993469</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9983142614364624</v>
+        <v>0.9996525049209595</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9698088765144348</v>
+        <v>0.9999486207962036</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9983104467391968</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="57">
@@ -2023,14 +2023,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.98711097240448</v>
+        <v>0.9999473094940186</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7488343119621277</v>
+        <v>0.9996380805969238</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7106953859329224</v>
+        <v>0.9999169111251831</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9998435974121094</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6313379406929016</v>
+        <v>0.9999504089355469</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.997267484664917</v>
+        <v>0.9999433755874634</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9983689188957214</v>
+        <v>0.9994491934776306</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9983565211296082</v>
+        <v>0.9995583891868591</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9985034465789795</v>
+        <v>0.9996028542518616</v>
       </c>
     </row>
     <row r="66">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6879628300666809</v>
+        <v>0.9996028542518616</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9746852517127991</v>
+        <v>0.9995661377906799</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.998391330242157</v>
+        <v>0.9996028542518616</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9704735279083252</v>
+        <v>0.999711811542511</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9982929825782776</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9983828067779541</v>
+        <v>0.9990135431289673</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.987027645111084</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9996364116668701</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9920435547828674</v>
+        <v>0.9997318387031555</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.997916042804718</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9996364116668701</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.998289167881012</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9850416779518127</v>
+        <v>0.9996364116668701</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9980661273002625</v>
+        <v>0.9999496936798096</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9981778860092163</v>
+        <v>0.9995772242546082</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9981733560562134</v>
+        <v>0.9999498128890991</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9980003237724304</v>
+        <v>0.9995772242546082</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9922885298728943</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9861798882484436</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9983713030815125</v>
+        <v>0.999614953994751</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9980003237724304</v>
+        <v>0.7490084171295166</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9985131621360779</v>
+        <v>0.9996352195739746</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9982555508613586</v>
+        <v>0.9999386072158813</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9729482531547546</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9983258843421936</v>
+        <v>0.9999526739120483</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9999543428421021</v>
       </c>
     </row>
     <row r="93">
@@ -3031,14 +3031,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9382790923118591</v>
+        <v>0.9999517202377319</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.987027645111084</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9817981123924255</v>
+        <v>0.999950647354126</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9871604442596436</v>
+        <v>0.999861478805542</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9983845949172974</v>
+        <v>0.9977599382400513</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9662854671478271</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9851551651954651</v>
+        <v>0.7329760789871216</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.997864305973053</v>
+        <v>0.9999467134475708</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9481539130210876</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9983982443809509</v>
+        <v>0.9992256164550781</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.998258650302887</v>
+        <v>0.7828822731971741</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9982324242591858</v>
+        <v>0.9999130964279175</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9997237324714661</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9984930753707886</v>
+        <v>0.9999505281448364</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9851551651954651</v>
+        <v>0.9996745586395264</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9983311295509338</v>
+        <v>0.9994169473648071</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9984719157218933</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9980220794677734</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9983047246932983</v>
+        <v>0.9997082352638245</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9946234226226807</v>
+        <v>0.9997114539146423</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.654123842716217</v>
+        <v>0.9994020462036133</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9139166474342346</v>
+        <v>0.9999454021453857</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8632597327232361</v>
+        <v>0.9994608759880066</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.955531895160675</v>
+        <v>0.96055668592453</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6011989712715149</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9971007704734802</v>
+        <v>0.862199068069458</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8830602765083313</v>
+        <v>0.7523879408836365</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9984440207481384</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.991607666015625</v>
+        <v>0.9997268319129944</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9983128309249878</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9983317255973816</v>
+        <v>0.9997268319129944</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9982823133468628</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9674175381660461</v>
+        <v>0.9997268319129944</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9912766218185425</v>
+        <v>0.9999536275863647</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9964855909347534</v>
+        <v>0.9484841227531433</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9858027696609497</v>
+        <v>0.9990118741989136</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9813939332962036</v>
+        <v>0.9926133155822754</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5445355176925659</v>
+        <v>0.9999544620513916</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9983322024345398</v>
+        <v>0.9983891248703003</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9711780548095703</v>
+        <v>0.9999474287033081</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9497506618499756</v>
+        <v>0.9984009861946106</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9953716397285461</v>
+        <v>0.9998781681060791</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9985107779502869</v>
+        <v>0.9993390440940857</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.998437225818634</v>
+        <v>0.9999436140060425</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7722917199134827</v>
+        <v>0.9996745586395264</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9913739562034607</v>
+        <v>0.9999481439590454</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7359920740127563</v>
+        <v>0.9999538660049438</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9905560612678528</v>
+        <v>0.7111570239067078</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9663151502609253</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9870886206626892</v>
+        <v>0.999427855014801</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6545635461807251</v>
+        <v>0.9999492168426514</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9860286116600037</v>
+        <v>0.999427855014801</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9982976317405701</v>
+        <v>0.9999476671218872</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9916480779647827</v>
+        <v>0.999711811542511</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9984319806098938</v>
+        <v>0.9999496936798096</v>
       </c>
     </row>
     <row r="149">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9899335503578186</v>
+        <v>0.9995021820068359</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9801281094551086</v>
+        <v>0.9985840320587158</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6009028553962708</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9984598159790039</v>
+        <v>0.9973891377449036</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9983909130096436</v>
+        <v>0.9999479055404663</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.986879289150238</v>
+        <v>0.9994254112243652</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9984157085418701</v>
+        <v>0.9999527931213379</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.998257577419281</v>
+        <v>0.9994435906410217</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9982555508613586</v>
+        <v>0.999950647354126</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9918074011802673</v>
+        <v>0.9994182586669922</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.982272744178772</v>
+        <v>0.9999525547027588</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9824246764183044</v>
+        <v>0.988642156124115</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9502677321434021</v>
+        <v>0.999950647354126</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9974322915077209</v>
+        <v>0.9976389408111572</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9984704852104187</v>
+        <v>0.9999451637268066</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9194771647453308</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9714521765708923</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9981778860092163</v>
+        <v>0.5796857476234436</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9983845949172974</v>
+        <v>0.9996566772460938</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9980218410491943</v>
+        <v>0.9982824325561523</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.998344898223877</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9858560562133789</v>
+        <v>0.9996566772460938</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.991607666015625</v>
+        <v>0.9979242086410522</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9859060049057007</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9984775185585022</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.998475968837738</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.998258650302887</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9984878301620483</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9983035326004028</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9913997650146484</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9983578324317932</v>
+        <v>0.9999494552612305</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9975844621658325</v>
+        <v>0.9999098777770996</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9982920289039612</v>
+        <v>0.9999430179595947</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9984279870986938</v>
+        <v>0.9999526739120483</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9984509944915771</v>
+        <v>0.9973614811897278</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9980584979057312</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9851213693618774</v>
+        <v>0.9999450445175171</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9922885298728943</v>
+        <v>0.9999470710754395</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9984667301177979</v>
+        <v>0.9999549388885498</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9982324242591858</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.998468816280365</v>
+        <v>0.9999438524246216</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9844571948051453</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.998310923576355</v>
+        <v>0.9308458566665649</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9984598159790039</v>
+        <v>0.9999505281448364</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9980518817901611</v>
+        <v>0.9999454021453857</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9913997650146484</v>
+        <v>0.9997205138206482</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9983202815055847</v>
+        <v>0.9996312856674194</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9983267188072205</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9979661703109741</v>
+        <v>0.9999475479125977</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9985156655311584</v>
+        <v>0.9999444484710693</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9907157421112061</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9422131776809692</v>
+        <v>0.9995911717414856</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.742876410484314</v>
+        <v>0.9999517202377319</v>
       </c>
     </row>
     <row r="202">
@@ -6083,14 +6083,14 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.63481605052948</v>
+        <v>0.9999532699584961</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9850416779518127</v>
+        <v>0.9998977184295654</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9980345368385315</v>
+        <v>0.9996939897537231</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9982870221138</v>
+        <v>0.9997556805610657</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9858890771865845</v>
+        <v>0.9999532699584961</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9983183145523071</v>
+        <v>0.998189389705658</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9983845949172974</v>
+        <v>0.9999480247497559</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9984287619590759</v>
+        <v>0.9969078898429871</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9981733560562134</v>
+        <v>0.9999536275863647</v>
       </c>
     </row>
   </sheetData>
